--- a/mapper/test_code_data2.xlsx
+++ b/mapper/test_code_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/earlysloth/webform-parser/mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C17D185-289A-2D43-A952-0A7428CE7176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D382D-0F3E-9F41-9079-AFB4EDE4296F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>아니오</t>
-  </si>
-  <si>
-    <t>백엔드, 파이썬, 플라스크</t>
   </si>
   <si>
     <t>졸림</t>
@@ -276,6 +273,10 @@
       </rPr>
       <t>]</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -588,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -617,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -631,20 +632,18 @@
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2">
@@ -662,11 +661,9 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -677,19 +674,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -700,19 +697,19 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -720,11 +717,11 @@
         <v>44139.467502916668</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -732,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -746,19 +743,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
@@ -769,19 +766,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
@@ -789,22 +786,22 @@
         <v>44139.469898668976</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -824,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
@@ -835,10 +832,10 @@
         <v>44139.471266875</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -847,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
@@ -861,19 +858,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -884,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -893,10 +890,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -907,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -916,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -930,19 +927,19 @@
         <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
@@ -953,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
@@ -962,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
@@ -976,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -985,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -999,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -1008,10 +1005,10 @@
         <v>8</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
@@ -1022,7 +1019,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1031,10 +1028,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
@@ -1045,7 +1042,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
@@ -1054,10 +1051,10 @@
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
@@ -1068,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
@@ -1077,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
@@ -1091,7 +1088,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
@@ -1100,10 +1097,10 @@
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
@@ -1114,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
@@ -1123,10 +1120,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
@@ -1137,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>8</v>
@@ -1146,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
@@ -1160,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -1169,10 +1166,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -1183,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
@@ -1192,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -1203,11 +1200,11 @@
         <v>44139.517746226848</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1215,10 +1212,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -1226,10 +1223,10 @@
         <v>44139.518077500004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1238,10 +1235,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
@@ -1252,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1261,10 +1258,10 @@
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
@@ -1272,10 +1269,10 @@
         <v>44139.518811712958</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1284,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
@@ -1298,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
@@ -1307,10 +1304,10 @@
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
@@ -1321,7 +1318,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
@@ -1330,10 +1327,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
@@ -1344,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
@@ -1353,10 +1350,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
@@ -1367,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -1376,10 +1373,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
@@ -1387,19 +1384,19 @@
         <v>44140.846187847223</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/mapper/test_code_data2.xlsx
+++ b/mapper/test_code_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/earlysloth/webform-parser/mapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8D382D-0F3E-9F41-9079-AFB4EDE4296F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD21B62F-AB45-E642-A1EE-46732630A07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -273,10 +273,6 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -605,24 +601,16 @@
       <c r="A2" s="2">
         <v>44139.460752928237</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -643,7 +631,9 @@
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2">
